--- a/04.HighQualityCode/Proba.xlsx
+++ b/04.HighQualityCode/Proba.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>N на фактура</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Текс 3а фактура</t>
+  </si>
+  <si>
+    <t>Фактура3</t>
+  </si>
+  <si>
+    <t>Фактура за проба от друг комп</t>
   </si>
 </sst>
 </file>
@@ -82,7 +88,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -95,9 +101,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office тема">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Оffice">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +141,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Оffice">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -207,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Оffice">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -381,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -423,6 +429,17 @@
       </c>
       <c r="C3">
         <v>3.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/04.HighQualityCode/Proba.xlsx
+++ b/04.HighQualityCode/Proba.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>N на фактура</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Текс 3а фактура</t>
+  </si>
+  <si>
+    <t>Фактура3</t>
+  </si>
+  <si>
+    <t>Фактура от лаптопа</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,6 +429,17 @@
       </c>
       <c r="C3">
         <v>3.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
